--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Npy</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H2">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I2">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J2">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09481974969035</v>
+        <v>1.262849333333333</v>
       </c>
       <c r="N2">
-        <v>1.09481974969035</v>
+        <v>3.788548</v>
       </c>
       <c r="O2">
-        <v>0.02539771542997712</v>
+        <v>0.02753556474575134</v>
       </c>
       <c r="P2">
-        <v>0.02539771542997712</v>
+        <v>0.02753556474575133</v>
       </c>
       <c r="Q2">
-        <v>2.940044852610559</v>
+        <v>3.421143454905333</v>
       </c>
       <c r="R2">
-        <v>2.940044852610559</v>
+        <v>30.790291094148</v>
       </c>
       <c r="S2">
-        <v>0.0176571595892232</v>
+        <v>0.01847197020617949</v>
       </c>
       <c r="T2">
-        <v>0.0176571595892232</v>
+        <v>0.01847197020617948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H3">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I3">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J3">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.1333093784549</v>
+        <v>25.45149466666667</v>
       </c>
       <c r="N3">
-        <v>25.1333093784549</v>
+        <v>76.354484</v>
       </c>
       <c r="O3">
-        <v>0.5830445053517826</v>
+        <v>0.5549524086300172</v>
       </c>
       <c r="P3">
-        <v>0.5830445053517826</v>
+        <v>0.554952408630017</v>
       </c>
       <c r="Q3">
-        <v>67.4933539407691</v>
+        <v>68.94980430214265</v>
       </c>
       <c r="R3">
-        <v>67.4933539407691</v>
+        <v>620.548238719284</v>
       </c>
       <c r="S3">
-        <v>0.405347871031934</v>
+        <v>0.3722845146890598</v>
       </c>
       <c r="T3">
-        <v>0.405347871031934</v>
+        <v>0.3722845146890598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H4">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I4">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J4">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.48257438197238</v>
+        <v>2.981677666666667</v>
       </c>
       <c r="N4">
-        <v>2.48257438197238</v>
+        <v>8.945033</v>
       </c>
       <c r="O4">
-        <v>0.05759095751142493</v>
+        <v>0.06501343927129398</v>
       </c>
       <c r="P4">
-        <v>0.05759095751142493</v>
+        <v>0.06501343927129398</v>
       </c>
       <c r="Q4">
-        <v>6.666741292349807</v>
+        <v>8.077564571403666</v>
       </c>
       <c r="R4">
-        <v>6.666741292349807</v>
+        <v>72.698081142633</v>
       </c>
       <c r="S4">
-        <v>0.04003874799207948</v>
+        <v>0.04361364382061209</v>
       </c>
       <c r="T4">
-        <v>0.04003874799207948</v>
+        <v>0.04361364382061209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H5">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I5">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J5">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1792918850204</v>
+        <v>2.257220666666667</v>
       </c>
       <c r="N5">
-        <v>2.1792918850204</v>
+        <v>6.771662</v>
       </c>
       <c r="O5">
-        <v>0.05055538608091516</v>
+        <v>0.04921715059102959</v>
       </c>
       <c r="P5">
-        <v>0.05055538608091516</v>
+        <v>0.04921715059102958</v>
       </c>
       <c r="Q5">
-        <v>5.852302071370521</v>
+        <v>6.114962019784666</v>
       </c>
       <c r="R5">
-        <v>5.852302071370521</v>
+        <v>55.034658178062</v>
       </c>
       <c r="S5">
-        <v>0.03514743373618138</v>
+        <v>0.03301685466577638</v>
       </c>
       <c r="T5">
-        <v>0.03514743373618138</v>
+        <v>0.03301685466577638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H6">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I6">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J6">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.34397024653555</v>
+        <v>2.429399</v>
       </c>
       <c r="N6">
-        <v>2.34397024653555</v>
+        <v>7.288196999999999</v>
       </c>
       <c r="O6">
-        <v>0.0543756077789797</v>
+        <v>0.05297138121868605</v>
       </c>
       <c r="P6">
-        <v>0.0543756077789797</v>
+        <v>0.05297138121868605</v>
       </c>
       <c r="Q6">
-        <v>6.294531734514516</v>
+        <v>6.581404660732998</v>
       </c>
       <c r="R6">
-        <v>6.294531734514516</v>
+        <v>59.23264194659699</v>
       </c>
       <c r="S6">
-        <v>0.03780335231180736</v>
+        <v>0.03553534436960194</v>
       </c>
       <c r="T6">
-        <v>0.03780335231180736</v>
+        <v>0.03553534436960194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.68541452000852</v>
+        <v>2.709067</v>
       </c>
       <c r="H7">
-        <v>2.68541452000852</v>
+        <v>8.127200999999999</v>
       </c>
       <c r="I7">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="J7">
-        <v>0.6952262945816897</v>
+        <v>0.670840434061904</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.873051314588791</v>
+        <v>11.47984033333333</v>
       </c>
       <c r="N7">
-        <v>9.873051314588791</v>
+        <v>34.439521</v>
       </c>
       <c r="O7">
-        <v>0.2290358278469205</v>
+        <v>0.250310055543222</v>
       </c>
       <c r="P7">
-        <v>0.2290358278469205</v>
+        <v>0.250310055543222</v>
       </c>
       <c r="Q7">
-        <v>26.51323535698594</v>
+        <v>31.09965661230233</v>
       </c>
       <c r="R7">
-        <v>26.51323535698594</v>
+        <v>279.896909510721</v>
       </c>
       <c r="S7">
-        <v>0.1592317299204643</v>
+        <v>0.1679181063106743</v>
       </c>
       <c r="T7">
-        <v>0.1592317299204643</v>
+        <v>0.1679181063106743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H8">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I8">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J8">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.09481974969035</v>
+        <v>1.262849333333333</v>
       </c>
       <c r="N8">
-        <v>1.09481974969035</v>
+        <v>3.788548</v>
       </c>
       <c r="O8">
-        <v>0.02539771542997712</v>
+        <v>0.02753556474575134</v>
       </c>
       <c r="P8">
-        <v>0.02539771542997712</v>
+        <v>0.02753556474575133</v>
       </c>
       <c r="Q8">
-        <v>1.288858564196414</v>
+        <v>1.600471681650223</v>
       </c>
       <c r="R8">
-        <v>1.288858564196414</v>
+        <v>14.404245134852</v>
       </c>
       <c r="S8">
-        <v>0.00774055584075392</v>
+        <v>0.008641515799896488</v>
       </c>
       <c r="T8">
-        <v>0.00774055584075392</v>
+        <v>0.008641515799896485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H9">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I9">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J9">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.1333093784549</v>
+        <v>25.45149466666667</v>
       </c>
       <c r="N9">
-        <v>25.1333093784549</v>
+        <v>76.354484</v>
       </c>
       <c r="O9">
-        <v>0.5830445053517826</v>
+        <v>0.5549524086300172</v>
       </c>
       <c r="P9">
-        <v>0.5830445053517826</v>
+        <v>0.554952408630017</v>
       </c>
       <c r="Q9">
-        <v>29.58777556596099</v>
+        <v>32.25594328196845</v>
       </c>
       <c r="R9">
-        <v>29.58777556596099</v>
+        <v>290.303489537716</v>
       </c>
       <c r="S9">
-        <v>0.1776966343198486</v>
+        <v>0.1741613092612113</v>
       </c>
       <c r="T9">
-        <v>0.1776966343198486</v>
+        <v>0.1741613092612112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H10">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I10">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J10">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.48257438197238</v>
+        <v>2.981677666666667</v>
       </c>
       <c r="N10">
-        <v>2.48257438197238</v>
+        <v>8.945033</v>
       </c>
       <c r="O10">
-        <v>0.05759095751142493</v>
+        <v>0.06501343927129398</v>
       </c>
       <c r="P10">
-        <v>0.05759095751142493</v>
+        <v>0.06501343927129398</v>
       </c>
       <c r="Q10">
-        <v>2.922569906475195</v>
+        <v>3.778828196957445</v>
       </c>
       <c r="R10">
-        <v>2.922569906475195</v>
+        <v>34.009453772617</v>
       </c>
       <c r="S10">
-        <v>0.01755220951934544</v>
+        <v>0.0204032373352787</v>
       </c>
       <c r="T10">
-        <v>0.01755220951934544</v>
+        <v>0.0204032373352787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H11">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I11">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J11">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1792918850204</v>
+        <v>2.257220666666667</v>
       </c>
       <c r="N11">
-        <v>2.1792918850204</v>
+        <v>6.771662</v>
       </c>
       <c r="O11">
-        <v>0.05055538608091516</v>
+        <v>0.04921715059102959</v>
       </c>
       <c r="P11">
-        <v>0.05055538608091516</v>
+        <v>0.04921715059102958</v>
       </c>
       <c r="Q11">
-        <v>2.565535569381817</v>
+        <v>2.860687859493111</v>
       </c>
       <c r="R11">
-        <v>2.565535569381817</v>
+        <v>25.746190735438</v>
       </c>
       <c r="S11">
-        <v>0.01540795234473378</v>
+        <v>0.01544587112649982</v>
       </c>
       <c r="T11">
-        <v>0.01540795234473378</v>
+        <v>0.01544587112649982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H12">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I12">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J12">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.34397024653555</v>
+        <v>2.429399</v>
       </c>
       <c r="N12">
-        <v>2.34397024653555</v>
+        <v>7.288196999999999</v>
       </c>
       <c r="O12">
-        <v>0.0543756077789797</v>
+        <v>0.05297138121868605</v>
       </c>
       <c r="P12">
-        <v>0.0543756077789797</v>
+        <v>0.05297138121868605</v>
       </c>
       <c r="Q12">
-        <v>2.759400465075071</v>
+        <v>3.078898012850333</v>
       </c>
       <c r="R12">
-        <v>2.759400465075071</v>
+        <v>27.710082115653</v>
       </c>
       <c r="S12">
-        <v>0.01657225546717234</v>
+        <v>0.01662406534858689</v>
       </c>
       <c r="T12">
-        <v>0.01657225546717234</v>
+        <v>0.01662406534858689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.17723357160934</v>
+        <v>1.267349666666667</v>
       </c>
       <c r="H13">
-        <v>1.17723357160934</v>
+        <v>3.802049</v>
       </c>
       <c r="I13">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="J13">
-        <v>0.3047737054183103</v>
+        <v>0.3138310719132735</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.873051314588791</v>
+        <v>11.47984033333333</v>
       </c>
       <c r="N13">
-        <v>9.873051314588791</v>
+        <v>34.439521</v>
       </c>
       <c r="O13">
-        <v>0.2290358278469205</v>
+        <v>0.250310055543222</v>
       </c>
       <c r="P13">
-        <v>0.2290358278469205</v>
+        <v>0.250310055543222</v>
       </c>
       <c r="Q13">
-        <v>11.62288746175565</v>
+        <v>14.54897181983656</v>
       </c>
       <c r="R13">
-        <v>11.62288746175565</v>
+        <v>130.940746378529</v>
       </c>
       <c r="S13">
-        <v>0.06980409792645617</v>
+        <v>0.0785550730418004</v>
       </c>
       <c r="T13">
-        <v>0.06980409792645617</v>
+        <v>0.0785550730418004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.185704</v>
+      </c>
+      <c r="I14">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J14">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.262849333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.788548</v>
+      </c>
+      <c r="O14">
+        <v>0.02753556474575134</v>
+      </c>
+      <c r="P14">
+        <v>0.02753556474575133</v>
+      </c>
+      <c r="Q14">
+        <v>0.07817205753244445</v>
+      </c>
+      <c r="R14">
+        <v>0.7035485177920001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004220787396753638</v>
+      </c>
+      <c r="T14">
+        <v>0.0004220787396753637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.185704</v>
+      </c>
+      <c r="I15">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J15">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>25.45149466666667</v>
+      </c>
+      <c r="N15">
+        <v>76.354484</v>
+      </c>
+      <c r="O15">
+        <v>0.5549524086300172</v>
+      </c>
+      <c r="P15">
+        <v>0.554952408630017</v>
+      </c>
+      <c r="Q15">
+        <v>1.575481455192889</v>
+      </c>
+      <c r="R15">
+        <v>14.179333096736</v>
+      </c>
+      <c r="S15">
+        <v>0.008506584679746099</v>
+      </c>
+      <c r="T15">
+        <v>0.008506584679746097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.185704</v>
+      </c>
+      <c r="I16">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J16">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.981677666666667</v>
+      </c>
+      <c r="N16">
+        <v>8.945033</v>
+      </c>
+      <c r="O16">
+        <v>0.06501343927129398</v>
+      </c>
+      <c r="P16">
+        <v>0.06501343927129398</v>
+      </c>
+      <c r="Q16">
+        <v>0.1845698231368889</v>
+      </c>
+      <c r="R16">
+        <v>1.661128408232</v>
+      </c>
+      <c r="S16">
+        <v>0.0009965581154031933</v>
+      </c>
+      <c r="T16">
+        <v>0.0009965581154031933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.185704</v>
+      </c>
+      <c r="I17">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J17">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.257220666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.771662</v>
+      </c>
+      <c r="O17">
+        <v>0.04921715059102959</v>
+      </c>
+      <c r="P17">
+        <v>0.04921715059102958</v>
+      </c>
+      <c r="Q17">
+        <v>0.1397249688942222</v>
+      </c>
+      <c r="R17">
+        <v>1.257524720048</v>
+      </c>
+      <c r="S17">
+        <v>0.0007544247987533886</v>
+      </c>
+      <c r="T17">
+        <v>0.0007544247987533885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.185704</v>
+      </c>
+      <c r="I18">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J18">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.429399</v>
+      </c>
+      <c r="N18">
+        <v>7.288196999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.05297138121868605</v>
+      </c>
+      <c r="P18">
+        <v>0.05297138121868605</v>
+      </c>
+      <c r="Q18">
+        <v>0.1503830372986666</v>
+      </c>
+      <c r="R18">
+        <v>1.353447335688</v>
+      </c>
+      <c r="S18">
+        <v>0.0008119715004972265</v>
+      </c>
+      <c r="T18">
+        <v>0.0008119715004972264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.185704</v>
+      </c>
+      <c r="I19">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="J19">
+        <v>0.01532849402482255</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.47984033333333</v>
+      </c>
+      <c r="N19">
+        <v>34.439521</v>
+      </c>
+      <c r="O19">
+        <v>0.250310055543222</v>
+      </c>
+      <c r="P19">
+        <v>0.250310055543222</v>
+      </c>
+      <c r="Q19">
+        <v>0.7106174230871112</v>
+      </c>
+      <c r="R19">
+        <v>6.395556807784</v>
+      </c>
+      <c r="S19">
+        <v>0.003836876190747279</v>
+      </c>
+      <c r="T19">
+        <v>0.003836876190747279</v>
       </c>
     </row>
   </sheetData>
